--- a/home_work_01.xlsx
+++ b/home_work_01.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsilva\source\sql_lessons\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21969F8-D4CF-4A6B-B630-D625C1CAD802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Não Normalizada" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Não Normalizada" sheetId="1" r:id="rId1"/>
+    <sheet name="Resposta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,226 +26,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="70">
-  <si>
-    <t xml:space="preserve">Num. Estudante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome Estudante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num. Disciplina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome Disciplina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod. Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categoria Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9232-4235, 92523-5353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algoritimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Claudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3343-3444, 9252-25352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direito Processual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Barros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9911-1123, 9922-2233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9793-1213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direito Civil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Roberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientação a Objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luiz Octavio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">camila@guardian.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matemática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algebra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarcísio Teixieira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rogério</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rogerio@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álgebra Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">André Paulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Clara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ana@gmail.com, 9234-1122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculo I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joaquim Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">am@ig.com, 9533-3344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatística</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sueli Miranda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constituição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruna Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cálculo II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel Medeiros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculo II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direito Constitucional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonia Nascimento</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+  <si>
+    <t>Num. Estudante</t>
+  </si>
+  <si>
+    <t>Nome Estudante</t>
+  </si>
+  <si>
+    <t>contato</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>Num. Disciplina</t>
+  </si>
+  <si>
+    <t>Nome Disciplina</t>
+  </si>
+  <si>
+    <t>Cod. Professor</t>
+  </si>
+  <si>
+    <t>Nome Professor</t>
+  </si>
+  <si>
+    <t>Categoria Professor</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>9232-4235, 92523-5353</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Algoritimos</t>
+  </si>
+  <si>
+    <t>Luis Claudio</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Fabiana</t>
+  </si>
+  <si>
+    <t>3343-3444, 9252-25352</t>
+  </si>
+  <si>
+    <t>Direito</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Direito Processual</t>
+  </si>
+  <si>
+    <t>Alex Barros</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>9911-1123, 9922-2233</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>9793-1213</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Direito Civil</t>
+  </si>
+  <si>
+    <t>Carlos Roberto</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Orientação a Objetos</t>
+  </si>
+  <si>
+    <t>Luiz Octavio</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>camila@guardian.com</t>
+  </si>
+  <si>
+    <t>Matemática</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>Tarcísio Teixieira</t>
+  </si>
+  <si>
+    <t>Rogério</t>
+  </si>
+  <si>
+    <t>rogerio@gmail.com</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Álgebra Linear</t>
+  </si>
+  <si>
+    <t>André Paulo</t>
+  </si>
+  <si>
+    <t>Ana Clara</t>
+  </si>
+  <si>
+    <t>ana@gmail.com, 9234-1122</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>Calculo I</t>
+  </si>
+  <si>
+    <t>Joaquim Silva</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>Ana Maria</t>
+  </si>
+  <si>
+    <t>am@ig.com, 9533-3344</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>Estatística</t>
+  </si>
+  <si>
+    <t>Sueli Miranda</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Constituição</t>
+  </si>
+  <si>
+    <t>Bruna Silva</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>Cálculo II</t>
+  </si>
+  <si>
+    <t>Isabel Medeiros</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Calculo II</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Direito Constitucional</t>
+  </si>
+  <si>
+    <t>Sonia Nascimento</t>
+  </si>
+  <si>
+    <t>1- Normalizar para a 3° Forma Normal</t>
+  </si>
+  <si>
+    <t>2- Escolher os tipos de dados para cada campo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,22 +257,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -271,7 +265,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -295,7 +289,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -303,65 +297,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -420,37 +372,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.53"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,759 +745,779 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>20300</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>21229</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>6.5</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>21935</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>7</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>22122</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>9</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>21229</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>20300</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>64</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>6.7</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>21490</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="J8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>21934</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>21</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>20313</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>9.5</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>21002</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>53</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="J11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>21229</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>22</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="J12">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>21490</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>23</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>7.8</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>20300</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>21</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>7.5</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>21490</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>53</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>6.7</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>21934</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>64</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>9.5</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>21935</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>8</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="0" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="K17" s="0" t="n">
+      <c r="J17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>20313</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>23</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>8.1</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>21002</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>11</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>5.5</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>21935</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>22</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>2.4</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>22122</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>7</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21">
         <v>6.6</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>22122</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>9</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22">
         <v>2.5</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="camila@guardian.com"/>
-    <hyperlink ref="C9" r:id="rId2" display="rogerio@gmail.com"/>
-    <hyperlink ref="C10" r:id="rId3" display="ana@gmail.com, 9234-1122"/>
-    <hyperlink ref="C11" r:id="rId4" display="am@ig.com, 9533-3344"/>
-    <hyperlink ref="C13" r:id="rId5" display="camila@guardian.com"/>
-    <hyperlink ref="C15" r:id="rId6" display="camila@guardian.com"/>
-    <hyperlink ref="C16" r:id="rId7" display="rogerio@gmail.com"/>
-    <hyperlink ref="C18" r:id="rId8" display="ana@gmail.com, 9234-1122"/>
-    <hyperlink ref="C19" r:id="rId9" display="am@ig.com, 9533-3344"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E8179-058A-420B-A231-FD221D6324F4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/home_work_01.xlsx
+++ b/home_work_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsilva\source\sql_lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21969F8-D4CF-4A6B-B630-D625C1CAD802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6208160D-C34D-4D98-82A4-5DD85A00F52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="71">
   <si>
     <t>Num. Estudante</t>
   </si>
@@ -238,10 +238,7 @@
     <t>Sonia Nascimento</t>
   </si>
   <si>
-    <t>1- Normalizar para a 3° Forma Normal</t>
-  </si>
-  <si>
-    <t>2- Escolher os tipos de dados para cada campo</t>
+    <t>Data Nascimento</t>
   </si>
 </sst>
 </file>
@@ -301,12 +298,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,10 +705,12 @@
     <col min="7" max="7" width="13.08984375" customWidth="1"/>
     <col min="8" max="8" width="14.81640625" customWidth="1"/>
     <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="10" max="11" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,8 +744,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20300</v>
       </c>
@@ -779,8 +782,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="5">
+        <v>33981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21229</v>
       </c>
@@ -814,8 +820,11 @@
       <c r="K3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="5">
+        <v>36204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>21935</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="K4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="5">
+        <v>36434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>22122</v>
       </c>
@@ -884,8 +896,11 @@
       <c r="K5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="5">
+        <v>28538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>21229</v>
       </c>
@@ -919,8 +934,11 @@
       <c r="K6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="5">
+        <v>36204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>20300</v>
       </c>
@@ -954,8 +972,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="5">
+        <v>33981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>21490</v>
       </c>
@@ -989,8 +1010,11 @@
       <c r="K8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="5">
+        <v>36043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>21934</v>
       </c>
@@ -1024,8 +1048,11 @@
       <c r="K9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="5">
+        <v>26346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>20313</v>
       </c>
@@ -1059,8 +1086,11 @@
       <c r="K10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="5">
+        <v>34960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>21002</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="K11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="5">
+        <v>37452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>21229</v>
       </c>
@@ -1129,8 +1162,11 @@
       <c r="K12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="5">
+        <v>36204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>21490</v>
       </c>
@@ -1164,8 +1200,11 @@
       <c r="K13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="5">
+        <v>36043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20300</v>
       </c>
@@ -1199,8 +1238,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="5">
+        <v>33981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>21490</v>
       </c>
@@ -1234,8 +1276,11 @@
       <c r="K15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="5">
+        <v>36043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>21934</v>
       </c>
@@ -1269,8 +1314,11 @@
       <c r="K16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="5">
+        <v>26346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>21935</v>
       </c>
@@ -1304,8 +1352,11 @@
       <c r="K17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="5">
+        <v>36434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>20313</v>
       </c>
@@ -1339,8 +1390,11 @@
       <c r="K18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="5">
+        <v>34960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>21002</v>
       </c>
@@ -1374,8 +1428,11 @@
       <c r="K19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="5">
+        <v>37452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>21935</v>
       </c>
@@ -1409,8 +1466,11 @@
       <c r="K20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="5">
+        <v>36434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>22122</v>
       </c>
@@ -1444,8 +1504,11 @@
       <c r="K21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="5">
+        <v>28538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22122</v>
       </c>
@@ -1478,6 +1541,9 @@
       </c>
       <c r="K22">
         <v>5</v>
+      </c>
+      <c r="L22" s="5">
+        <v>28538</v>
       </c>
     </row>
   </sheetData>
@@ -1499,25 +1565,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E8179-058A-420B-A231-FD221D6324F4}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>